--- a/public/storage/Archivos/FormatosExcel/Carga_Masiva.xlsx
+++ b/public/storage/Archivos/FormatosExcel/Carga_Masiva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinCR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB3C0A1-E2F4-468D-A4A5-587B331B7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B91D24-0890-4D20-949E-B69510912D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71AC2B83-B0D1-4BB0-BA54-74FED2C5CE57}"/>
   </bookViews>
@@ -26,30 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>operador</t>
-  </si>
-  <si>
-    <t>clave</t>
-  </si>
-  <si>
-    <t>equipo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>fecha</t>
-  </si>
-  <si>
-    <t>partida</t>
   </si>
   <si>
     <t>peso</t>
   </si>
   <si>
-    <t>proceso</t>
+    <t>turno</t>
   </si>
   <si>
-    <t>maquina</t>
+    <t>paquete_operador</t>
+  </si>
+  <si>
+    <t>paquete_norma</t>
   </si>
 </sst>
 </file>
@@ -402,87 +393,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A784B74C-288C-4781-8FDB-9DE2BD6605E2}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/public/storage/Archivos/FormatosExcel/Carga_Masiva.xlsx
+++ b/public/storage/Archivos/FormatosExcel/Carga_Masiva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinCR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B91D24-0890-4D20-949E-B69510912D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11436E-F82F-42F8-9527-F0F2C10C0D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71AC2B83-B0D1-4BB0-BA54-74FED2C5CE57}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fecha</t>
   </si>
@@ -40,17 +40,29 @@
     <t>paquete_operador</t>
   </si>
   <si>
-    <t>paquete_norma</t>
+    <t>clave</t>
+  </si>
+  <si>
+    <t>partida</t>
+  </si>
+  <si>
+    <t>com_part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,177 +406,2076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A784B74C-288C-4781-8FDB-9DE2BD6605E2}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="3" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="E103" s="2"/>
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="E109" s="2"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="E111" s="2"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="E112" s="2"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="E115" s="2"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="E117" s="2"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="E118" s="2"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="E119" s="2"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="E122" s="2"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="E125" s="2"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="E128" s="2"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="E131" s="2"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="E138" s="2"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="E139" s="2"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="E140" s="2"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="E142" s="2"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="E143" s="2"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="E144" s="2"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="E145" s="2"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="E146" s="2"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="E147" s="2"/>
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="E149" s="2"/>
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="E152" s="2"/>
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="E154" s="2"/>
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="E155" s="2"/>
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="E157" s="2"/>
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="E158" s="2"/>
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="E159" s="2"/>
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="E160" s="2"/>
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="E161" s="2"/>
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="E162" s="2"/>
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="E163" s="2"/>
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="E164" s="2"/>
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="E165" s="2"/>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="E166" s="2"/>
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="E167" s="2"/>
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="E168" s="2"/>
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="E169" s="2"/>
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="E170" s="2"/>
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="F213"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="F241"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="F245"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="F247"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="F248"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="F250"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="F251"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="F252"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="F253"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="F254"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="F255"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="F257"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="F258"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="F260"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="F261"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="F262"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="F265"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="F266"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="F267"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="F269"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="F270"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="F271"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="F302"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="F303"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="F304"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="F305"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="F306"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="F308"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="F312"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="F319"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="F320"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="F321"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="F322"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="F323"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="F324"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="F325"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="F326"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="F327"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="F328"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="F329"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="F330"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="F331"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="F332"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="F333"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="F334"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="F335"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="F337"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="F338"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="F339"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="F340"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="F341"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="F342"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="F343"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="F344"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="F345"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="F346"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="F347"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="F348"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="F349"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="F350"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="F351"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="F352"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="F353"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="F354"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="F355"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="F356"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="F357"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="F358"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="F359"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="F360"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="F361"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="F362"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="F363"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="F364"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="F365"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="F366"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="F367"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="F368"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="F369"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="F370"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="F371"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="F372"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="F373"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="F374"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="F375"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="F376"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="F377"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="F378"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="F379"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="F380"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="F381"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="F382"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="F383"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="F384"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="F385"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="F386"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="F387"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="F388"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="F389"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="F390"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="F391"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="F392"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="F393"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="F394"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="F395"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="F396"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="F397"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="F398"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="F399"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="F400"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="F401"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="F402"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+      <c r="F403"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="F404"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="F405"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="F406"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="F407"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="F408"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="F409"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="F411"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="F412"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="F413"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="F414"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="F415"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="F416"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+      <c r="F417"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+      <c r="F418"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+      <c r="F419"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+      <c r="F420"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+      <c r="F421"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+      <c r="F422"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="F423"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="F424"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="F425"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="F426"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="F427"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="F428"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="F429"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="F430"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="F431"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="F432"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="F433"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="F434"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+      <c r="F435"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="F436"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="F437"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="F438"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="F439"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+      <c r="F440"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+      <c r="F441"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+      <c r="F442"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+      <c r="F443"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+      <c r="F444"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
+      <c r="F445"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="F446"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="F447"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="F448"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="F449"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="F450"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="F451"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="1"/>
+      <c r="F452"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="1"/>
+      <c r="F453"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="1"/>
+      <c r="F454"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+      <c r="F455"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="1"/>
+      <c r="F456"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="1"/>
+      <c r="F457"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="1"/>
+      <c r="F458"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="1"/>
+      <c r="F459"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="1"/>
+      <c r="F460"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="1"/>
+      <c r="F461"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="1"/>
+      <c r="F462"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="F463"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="1"/>
+      <c r="F464"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+      <c r="F465"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+      <c r="F466"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
